--- a/Task8/Task8.xlsx
+++ b/Task8/Task8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>New</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>01-&gt;02</t>
+  </si>
+  <si>
+    <t>02-&gt;03</t>
   </si>
 </sst>
 </file>
@@ -371,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,7 +393,7 @@
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>42736</v>
       </c>
@@ -395,7 +404,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -409,7 +418,7 @@
         <v>35352</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -423,7 +432,7 @@
         <v>9325</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -437,7 +446,7 @@
         <v>60471</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -451,7 +460,7 @@
         <v>409412</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -466,6 +475,212 @@
       <c r="D6">
         <f>SUM(D2:D5)</f>
         <v>514560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>64322</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>2057</v>
+      </c>
+      <c r="F10">
+        <f>SUM(B10:E10)</f>
+        <v>66392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>29827</v>
+      </c>
+      <c r="D11">
+        <v>1255</v>
+      </c>
+      <c r="E11">
+        <v>67375</v>
+      </c>
+      <c r="F11">
+        <f>SUM(B11:E11)</f>
+        <v>98457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>7314</v>
+      </c>
+      <c r="E12">
+        <v>1739</v>
+      </c>
+      <c r="F12">
+        <f>SUM(B12:E12)</f>
+        <v>9053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5705</v>
+      </c>
+      <c r="D13">
+        <v>689</v>
+      </c>
+      <c r="E13">
+        <v>264796</v>
+      </c>
+      <c r="F13">
+        <f>SUM(B13:E13)</f>
+        <v>271190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>4633</v>
+      </c>
+      <c r="C17">
+        <v>27657</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>SUM(B17:E17)</f>
+        <v>32298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>23649</v>
+      </c>
+      <c r="D18">
+        <v>968</v>
+      </c>
+      <c r="E18">
+        <v>78650</v>
+      </c>
+      <c r="F18">
+        <f>SUM(B18:E18)</f>
+        <v>103267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>7402</v>
+      </c>
+      <c r="E19">
+        <v>1898</v>
+      </c>
+      <c r="F19">
+        <f>SUM(B19:E19)</f>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>6178</v>
+      </c>
+      <c r="D20">
+        <v>925</v>
+      </c>
+      <c r="E20">
+        <v>328864</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B20:E20)</f>
+        <v>335967</v>
       </c>
     </row>
   </sheetData>
